--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/流动负债合计.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/流动负债合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1153.94458</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3133.63241</v>
-      </c>
-      <c r="D2" t="n">
-        <v>266.03888</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.96795</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50.64992</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2374.99068</v>
-      </c>
-      <c r="H2" t="n">
-        <v>408.04898</v>
-      </c>
-      <c r="I2" t="n">
-        <v>792.67482</v>
-      </c>
-      <c r="J2" t="n">
-        <v>202.48075</v>
-      </c>
-      <c r="K2" t="n">
-        <v>32237.40889</v>
-      </c>
-      <c r="L2" t="n">
-        <v>207.25959</v>
-      </c>
-      <c r="M2" t="n">
-        <v>27.50229</v>
-      </c>
-      <c r="N2" t="n">
-        <v>44.09972</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1547.99892</v>
-      </c>
-      <c r="P2" t="n">
-        <v>868.00272</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>169.04587</v>
-      </c>
-      <c r="R2" t="n">
-        <v>124.54391</v>
-      </c>
-      <c r="S2" t="n">
-        <v>121.41153</v>
-      </c>
-      <c r="T2" t="n">
-        <v>213.61628</v>
-      </c>
-      <c r="U2" t="n">
-        <v>282.49069</v>
-      </c>
-      <c r="V2" t="n">
-        <v>762.72393</v>
-      </c>
-      <c r="W2" t="n">
-        <v>160.42274</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1284.72041</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3460.88838</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1855.01879</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>977.57661</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>82.86342999999999</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1225.12849</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>796.7170599999999</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1501.08746</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>267.54164</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>481.28413</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>349.14891</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1326.71551</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>186.32516</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>359.22676</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1031.60023</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>778.8976699999999</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>2909.2313</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>74.99916</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1094.06021</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3420.54909</v>
-      </c>
-      <c r="D3" t="n">
-        <v>280.96357</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.50969</v>
-      </c>
-      <c r="F3" t="n">
-        <v>49.02597</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2336.20014</v>
-      </c>
-      <c r="H3" t="n">
-        <v>324.8604</v>
-      </c>
-      <c r="I3" t="n">
-        <v>825.75265</v>
-      </c>
-      <c r="J3" t="n">
-        <v>219.31095</v>
-      </c>
-      <c r="K3" t="n">
-        <v>33144.47423</v>
-      </c>
-      <c r="L3" t="n">
-        <v>217.84631</v>
-      </c>
-      <c r="M3" t="n">
-        <v>28.91994</v>
-      </c>
-      <c r="N3" t="n">
-        <v>40.13258</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1578.79578</v>
-      </c>
-      <c r="P3" t="n">
-        <v>946.15071</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>167.6339</v>
-      </c>
-      <c r="R3" t="n">
-        <v>121.61001</v>
-      </c>
-      <c r="S3" t="n">
-        <v>116.36357</v>
-      </c>
-      <c r="T3" t="n">
-        <v>207.47045</v>
-      </c>
-      <c r="U3" t="n">
-        <v>290.50017</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1104.54991</v>
-      </c>
-      <c r="W3" t="n">
-        <v>165.10514</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1398.98105</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3955.21574</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1823.31793</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1007.47978</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>78.94916000000001</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1245.87102</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>837.79305</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1357.65541</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>299.17334</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>476.31047</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>369.35419</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1256.30949</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>191.82322</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>353.3909</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>840.87574</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>759.80591</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2898.35836</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>92.39711</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1162.14298</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3834.50912</v>
-      </c>
-      <c r="D4" t="n">
-        <v>263.49936</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.50431</v>
-      </c>
-      <c r="F4" t="n">
-        <v>48.83841</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2378.34007</v>
-      </c>
-      <c r="H4" t="n">
-        <v>331.45588</v>
-      </c>
-      <c r="I4" t="n">
-        <v>888.56939</v>
-      </c>
-      <c r="J4" t="n">
-        <v>209.16474</v>
-      </c>
-      <c r="K4" t="n">
-        <v>34009.59146</v>
-      </c>
-      <c r="L4" t="n">
-        <v>194.27663</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22.09893</v>
-      </c>
-      <c r="N4" t="n">
-        <v>43.88709</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1615.69636</v>
-      </c>
-      <c r="P4" t="n">
-        <v>988.2672</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>173.18438</v>
-      </c>
-      <c r="R4" t="n">
-        <v>95.84218</v>
-      </c>
-      <c r="S4" t="n">
-        <v>105.99291</v>
-      </c>
-      <c r="T4" t="n">
-        <v>214.18377</v>
-      </c>
-      <c r="U4" t="n">
-        <v>272.37438</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1079.93546</v>
-      </c>
-      <c r="W4" t="n">
-        <v>196.81976</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1599.26402</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>4187.3483</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1748.73162</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1015.92396</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>61.7942</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1173.33735</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>888.72489</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1245.91739</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>341.86524</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>491.16216</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>325.19972</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1271.13564</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>196.86496</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>356.39855</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>748.70977</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>750.6829300000001</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3008.02942</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>102.43645</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
